--- a/xlsx/哲学_intext.xlsx
+++ b/xlsx/哲学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>柏拉图</t>
   </si>
   <si>
-    <t>政策_政策_政治學_哲学</t>
+    <t>体育运动_体育运动_文化_哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
